--- a/Class2/ICT-Gap-Analysis-Template.xlsx
+++ b/Class2/ICT-Gap-Analysis-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinob\OneDrive\Desktop\AIE\ProfStud\Class2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\ProfStud\Class2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2E693C-E604-4249-A63F-DA94B65F7B35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698E6D12-3EE2-499B-A979-736D19ACDB94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document History" sheetId="4" r:id="rId1"/>
@@ -45,19 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
-  <si>
-    <t>First Draft</t>
-  </si>
-  <si>
-    <t>j. Smith</t>
-  </si>
-  <si>
-    <t>Example Row</t>
-  </si>
-  <si>
-    <t>Example Text</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="133">
   <si>
     <t>NOTES</t>
   </si>
@@ -96,15 +84,9 @@
     <t>COMPLETE</t>
   </si>
   <si>
-    <t>J. Smith</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>100% on-time delivery</t>
-  </si>
-  <si>
     <t>HIGH</t>
   </si>
   <si>
@@ -126,9 +108,6 @@
     <t>Using personal licenses for all software</t>
   </si>
   <si>
-    <t>Example notes</t>
-  </si>
-  <si>
     <t>HARDWARE GAP ANALYSIS</t>
   </si>
   <si>
@@ -252,9 +231,6 @@
     <t>All staff</t>
   </si>
   <si>
-    <t>New staff &amp; constractors</t>
-  </si>
-  <si>
     <t>WHO'S AFFECTED?</t>
   </si>
   <si>
@@ -273,9 +249,6 @@
     <t>8x Personal Computer</t>
   </si>
   <si>
-    <t>Reulaly cleaned and security policies adhered to</t>
-  </si>
-  <si>
     <t>Install Unity Hub &amp; Unity 2020.1.10, antivirus software on all machines</t>
   </si>
   <si>
@@ -291,10 +264,187 @@
     <t>To maintain regular software and antivirus updates</t>
   </si>
   <si>
-    <t>External HDD to be bought</t>
-  </si>
-  <si>
     <t>Harley CTO</t>
+  </si>
+  <si>
+    <t>Extra available storage capacity</t>
+  </si>
+  <si>
+    <t>Evaluate cloud storage services</t>
+  </si>
+  <si>
+    <t>To be use for secure in house storage of confidetial files</t>
+  </si>
+  <si>
+    <t>Reularly cleaned and security policies adhered to</t>
+  </si>
+  <si>
+    <t>Work regularly backedup onto external HDD</t>
+  </si>
+  <si>
+    <t>New staff &amp; contractors</t>
+  </si>
+  <si>
+    <t>External HDD to be aquired</t>
+  </si>
+  <si>
+    <t>100% availabilty</t>
+  </si>
+  <si>
+    <t>Set up a regular backup schedual on all computers</t>
+  </si>
+  <si>
+    <t>Evaluate version control services</t>
+  </si>
+  <si>
+    <t>Regular backups of each weeks work.</t>
+  </si>
+  <si>
+    <t>Ethernet connection to all computers</t>
+  </si>
+  <si>
+    <t>Install ethernet cables arcross the office</t>
+  </si>
+  <si>
+    <t>Install Wifi across the office</t>
+  </si>
+  <si>
+    <t>Easier, more stable access to internet for employees</t>
+  </si>
+  <si>
+    <t>Keycards for existing team members and temporary keycards for new members and contractors</t>
+  </si>
+  <si>
+    <t>Invest in addition keycards</t>
+  </si>
+  <si>
+    <t>new members and contractors have to be let in by existing memebers</t>
+  </si>
+  <si>
+    <t>Amanda CFO</t>
+  </si>
+  <si>
+    <t>Increase productivity from new members and contractors</t>
+  </si>
+  <si>
+    <t>Individual passwords for indivual team members</t>
+  </si>
+  <si>
+    <t>Set up a server with an account for each team member which is connected to all computers in company</t>
+  </si>
+  <si>
+    <t>continue using current system</t>
+  </si>
+  <si>
+    <t>Means people aren’t strictly stuck to a computer if all their work is on it.</t>
+  </si>
+  <si>
+    <t>Commpany One Drive and Google drive account</t>
+  </si>
+  <si>
+    <t>Purchase accounts and set up on all office computers</t>
+  </si>
+  <si>
+    <t>Continue with current system</t>
+  </si>
+  <si>
+    <t>More streamlined file sharing</t>
+  </si>
+  <si>
+    <t>Designers and Programmers</t>
+  </si>
+  <si>
+    <t>Purchase one of each latest commercial headset from popular brands</t>
+  </si>
+  <si>
+    <t>One of each latest commercial headset</t>
+  </si>
+  <si>
+    <t>Outsource alternative headset testing to third party companies</t>
+  </si>
+  <si>
+    <t>Have multiple headset support for games developed</t>
+  </si>
+  <si>
+    <t>Game engine needed to make game.</t>
+  </si>
+  <si>
+    <t>Can't use engines in professional setting without correct licensing</t>
+  </si>
+  <si>
+    <t>Upgrade full Maya license for each artist</t>
+  </si>
+  <si>
+    <t>Install blender on all computers</t>
+  </si>
+  <si>
+    <t>Artists need properaly licensed professional tools to work efficiently</t>
+  </si>
+  <si>
+    <t>Purchase and install Windows 10 Enterprise on all machines</t>
+  </si>
+  <si>
+    <t>Continue using Windows 10 home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 10 doesn’t enforce businesses to use a specific version </t>
+  </si>
+  <si>
+    <t>Create company accounts for each team memeber</t>
+  </si>
+  <si>
+    <t>Evaluate other project management tools E.g. ClickUp</t>
+  </si>
+  <si>
+    <t>Project management tools are essential to stream lining the development process</t>
+  </si>
+  <si>
+    <t>Company issued testing phones</t>
+  </si>
+  <si>
+    <t>Purchase a number of phones that corrolates to the number of Designers and Programmers</t>
+  </si>
+  <si>
+    <t>Employees continue using their own phones</t>
+  </si>
+  <si>
+    <t>Having Company own testing phones mitigates any risk of employees breaking their own phones</t>
+  </si>
+  <si>
+    <t>Install an anti virus on all machines</t>
+  </si>
+  <si>
+    <t>Evaluate what anti virus would best suit the company</t>
+  </si>
+  <si>
+    <t>Use windows built in Mircrosoft Defender</t>
+  </si>
+  <si>
+    <t>Anti viruses are critical in ensuring your computer is protected from harmful malware</t>
+  </si>
+  <si>
+    <t>Create company google Drive and give employees access</t>
+  </si>
+  <si>
+    <t>Shared drive increase work flow and productivity</t>
+  </si>
+  <si>
+    <t>Evaluate Cloud servers for documents to be shared with.</t>
+  </si>
+  <si>
+    <t>Hardware Gap Analysis</t>
+  </si>
+  <si>
+    <t>Sofi</t>
+  </si>
+  <si>
+    <t>Most of Hardware Gap Analysis complete</t>
+  </si>
+  <si>
+    <t>Hardware and Software gap analysis</t>
+  </si>
+  <si>
+    <t>Complete Hardware and Software Gap Analysis</t>
   </si>
 </sst>
 </file>
@@ -2120,134 +2270,144 @@
   <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="31.58203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="2:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" s="1" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>0</v>
       </c>
       <c r="C3" s="13">
-        <v>41255</v>
+        <v>44537</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="9">
+        <v>44537</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="9"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="7"/>
     </row>
-    <row r="7" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="9"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="9"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="2:6" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="5"/>
       <c r="D14" s="4"/>
@@ -2271,31 +2431,31 @@
   </sheetPr>
   <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" customWidth="1"/>
+    <col min="4" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="8" max="9" width="27.375" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="29.25" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" customWidth="1"/>
+    <col min="13" max="13" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -2303,235 +2463,329 @@
       <c r="I1" s="2"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="2:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="L2" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" s="31" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="31" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B3" s="25">
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>76</v>
-      </c>
       <c r="I3" s="26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="31" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="31" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="B4" s="25">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="37.5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="20">
         <f t="shared" ref="B5:B28" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
-    </row>
-    <row r="6" spans="2:12" ht="37.5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B6" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="2:12" ht="25" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="27" x14ac:dyDescent="0.25">
       <c r="B7" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="54" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="54" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="27" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="2:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="B8" s="20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="E10" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="2:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="B9" s="20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="2:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="B10" s="20">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H10" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2547,7 +2801,7 @@
       <c r="K11" s="26"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2563,7 +2817,7 @@
       <c r="K12" s="26"/>
       <c r="L12" s="27"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2579,7 +2833,7 @@
       <c r="K13" s="26"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2595,7 +2849,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2611,7 +2865,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="27"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2627,7 +2881,7 @@
       <c r="K16" s="26"/>
       <c r="L16" s="27"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2643,7 +2897,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="27"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2659,7 +2913,7 @@
       <c r="K18" s="26"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2675,7 +2929,7 @@
       <c r="K19" s="26"/>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2691,7 +2945,7 @@
       <c r="K20" s="26"/>
       <c r="L20" s="27"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2707,7 +2961,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2723,7 +2977,7 @@
       <c r="K22" s="26"/>
       <c r="L22" s="27"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2739,7 +2993,7 @@
       <c r="K23" s="26"/>
       <c r="L23" s="27"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="20">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2755,7 +3009,7 @@
       <c r="K24" s="26"/>
       <c r="L24" s="27"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2771,7 +3025,7 @@
       <c r="K25" s="26"/>
       <c r="L25" s="27"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="20">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2787,7 +3041,7 @@
       <c r="K26" s="26"/>
       <c r="L26" s="27"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2803,7 +3057,7 @@
       <c r="K27" s="26"/>
       <c r="L27" s="27"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="20">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2830,7 +3084,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I28" xr:uid="{902461CF-2D74-45B6-80ED-B5762F3F11D0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I28" xr:uid="{902461CF-2D74-45B6-80ED-B5762F3F11D0}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -2868,30 +3122,30 @@
   </sheetPr>
   <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="4.875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" customWidth="1"/>
+    <col min="4" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="9" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" customWidth="1"/>
+    <col min="8" max="9" width="27.375" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
@@ -2899,251 +3153,329 @@
       <c r="I1" s="2"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="2:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="G2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="L2" s="23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" s="30" customFormat="1" ht="37.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="30" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B3" s="25">
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L3" s="27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="30" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="B4" s="25">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="26"/>
+        <v>13</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="H4" s="26" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" spans="2:12" s="32" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" s="32" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
       <c r="B5" s="20">
         <f t="shared" ref="B5:B28" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" s="32" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" s="32" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" s="32" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" s="32" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="32" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="27"/>
-    </row>
-    <row r="6" spans="2:12" s="32" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="2:12" s="32" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="B7" s="20">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="2:12" s="32" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="B8" s="20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="F10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="2:12" s="32" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="B10" s="20">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3159,7 +3491,7 @@
       <c r="K11" s="26"/>
       <c r="L11" s="27"/>
     </row>
-    <row r="12" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3175,7 +3507,7 @@
       <c r="K12" s="26"/>
       <c r="L12" s="27"/>
     </row>
-    <row r="13" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3191,7 +3523,7 @@
       <c r="K13" s="26"/>
       <c r="L13" s="27"/>
     </row>
-    <row r="14" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3207,7 +3539,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="27"/>
     </row>
-    <row r="15" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3223,7 +3555,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="27"/>
     </row>
-    <row r="16" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3239,7 +3571,7 @@
       <c r="K16" s="26"/>
       <c r="L16" s="27"/>
     </row>
-    <row r="17" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3255,7 +3587,7 @@
       <c r="K17" s="26"/>
       <c r="L17" s="27"/>
     </row>
-    <row r="18" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3271,7 +3603,7 @@
       <c r="K18" s="26"/>
       <c r="L18" s="27"/>
     </row>
-    <row r="19" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3287,7 +3619,7 @@
       <c r="K19" s="26"/>
       <c r="L19" s="27"/>
     </row>
-    <row r="20" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3303,7 +3635,7 @@
       <c r="K20" s="26"/>
       <c r="L20" s="27"/>
     </row>
-    <row r="21" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3319,7 +3651,7 @@
       <c r="K21" s="26"/>
       <c r="L21" s="27"/>
     </row>
-    <row r="22" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="20">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3335,7 +3667,7 @@
       <c r="K22" s="26"/>
       <c r="L22" s="27"/>
     </row>
-    <row r="23" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3351,7 +3683,7 @@
       <c r="K23" s="26"/>
       <c r="L23" s="27"/>
     </row>
-    <row r="24" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="20">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3367,7 +3699,7 @@
       <c r="K24" s="26"/>
       <c r="L24" s="27"/>
     </row>
-    <row r="25" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="20">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3383,7 +3715,7 @@
       <c r="K25" s="26"/>
       <c r="L25" s="27"/>
     </row>
-    <row r="26" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3399,7 +3731,7 @@
       <c r="K26" s="26"/>
       <c r="L26" s="27"/>
     </row>
-    <row r="27" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3415,7 +3747,7 @@
       <c r="K27" s="26"/>
       <c r="L27" s="27"/>
     </row>
-    <row r="28" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="20">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3442,7 +3774,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I28" xr:uid="{CFCC56A9-F04E-4187-B22B-FC9E4B1205F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I28" xr:uid="{CFCC56A9-F04E-4187-B22B-FC9E4B1205F5}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3483,30 +3815,30 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
